--- a/tags_add data.xlsx
+++ b/tags_add data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>Checklist</t>
   </si>
@@ -1354,6 +1354,1154 @@
         <rFont val="Helvetica Neue"/>
       </rPr>
       <t>------WebKitFormBoundarygJfrmjrunBjCVY9z-</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">{
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"device_os_version": "11.4.1",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"tealium_profile": "cn-rbwm-mobile",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"event_subcategory": "---",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"tealium_visitor_id": "96D14FA83CCC42FBB9B008FDEF0250C0",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"os_version": "11.4.1",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"mobile_app_market": "China",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"site_subregion": "Rest of Asia Pacific",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"app_version": "1.0.0",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"uuid": "96D14FA8-3CCC-42FB-B9B0-08FDEF0250C0",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"product_category": "credit cards",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"tealium_library_version": "5.4.1",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"platform": "iOS",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"device_language": "zh-Hans-CN",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"tealium_event_type": "view",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"site_country": "China",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"tealium_event": "link",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"orientation": "Portrait",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"tealium_timestamp_epoch": "1598603832",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"device_battery_percent": "75",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"tealium_environment": "dev",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"page_language": "zh_CHS",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"was_queued": "false",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"page_security_level": "40",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"page_category": "coupon",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"site_region": "Asia Pacific",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"page_section": "IB",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"app_uuid": "96D14FA8-3CCC-42FB-B9B0-08FDEF0250C0",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"screen_name": "mobile:coupon:merchants",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"timestamp_unix": "1598603832",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"device_ischarging": "true",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"carrier": "ä¸­å½èé",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"origin": "mobile",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"tealium_account": "hsbc",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"device": "iPhone 6s",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"library_version": "5.4.1",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"page_url": "/coupon/merchants",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"visitor_id": "96D14FA83CCC42FBB9B008FDEF0250C0",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"site_entity": "HSBC Bank (China) Company Limited",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"page_customer_group": "general",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"timestamp_local": "2020-08-28T03:37:12",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"app_rdns": "cn.com.hsbc.hsbcchina.test",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"tealium_session_id": "1598603832801",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"connection_type": "wifi",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"device_cputype": "ARM64",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"page_ib_type": "PIB",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"page_name": "mobile:coupon:merchants",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"event_content": "types of coupons",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"event_category": "content",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"timestamp_offset": "-5",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"device_architecture": "64",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"event_action": "dropdown",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"page_subcategory": "merchants",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"tealium_library_name": "iOS",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"call_type": "view",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"site_section": "mobile",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"timestamp": "2020-08-28T08:37:12Z",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"device_resolution": "750x1334",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"tealium_random": "1264058097506371",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"site_brand": "HSBC",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"page_product_type": "Internet Banking",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"device_orientation": "Portrait",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"Event Details": "dropdown - types of coupons",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"page_type": "others",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"screen_title": "couponMerchants-selectCouponType",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"cp.utag_main_dc_visit": "4",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"cp.utag_main_vapi_domain": "</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>tiqcdn.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"cp.utag_main__sn": "3",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"cp.utag_main__ss": "0",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"cp.utag_main__st": "1598605632806",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"cp.utag_main_ses_id": "1598599679238",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"cp.utag_main__pn": "1",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"cp.utag_main_dc_event": "86",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"cp.utag_main__prevpage": "mobile:coupon:merchants",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"cp.utag_main_dc_region": "eu-central-1",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"cp.AMCV_AE9446FC57CECBEE7F000101%40AdobeOrg": "-1303530583|MCMID|21703505956680281822948887813215521288|MCAAMLH-1599183152|11|MCAAMB-1599183152|6G1ynYcLPuiQxYZrsz_pkqfLG9yMXBpb2zX5dvJdYQJzPXImdj0y|MCOPTOUT-1598585552s|NONE|MCSYNCSOP|411-18510|vVersion|3.3.0",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"cp.AMCVS_AE9446FC57CECBEE7F000101%40AdobeOrg": "1",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"cp.s_cc": "true",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"dom.title": "Tealium Mobile Webview",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"dom.domain": "</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>tags.tiqcdn.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"dom.url": "</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://tags.tiqcdn.com/utag/hsbc/cn-rbwm-mobile/dev/mobile.html?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"dom.pathname": "/utag/hsbc/cn-rbwm-mobile/dev/mobile.html",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"dom.viewport_height": 667,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"dom.viewport_width": 667,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"ut.domain": "</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>tiqcdn.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"ut.version": "ut4.42.201911210803",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"ut.event": "view",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"ut.session_id": "1598599679238",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"ut.account": "hsbc",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"ut.profile": "cn-rbwm-mobile",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"ut.env": "dev",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"tealium_timestamp_utc": "2020-08-28T08:37:12.808Z",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"tealium_timestamp_local": "2020-08-28T03:37:12.808",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"js_page.s.account": "hsbc-rbwm-global-qa-1",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"js_page.s.marketingCloudVisitorID": "21703505956680281822948887813215521288",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"tmsLibVer_core": "1.5",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"_cstore": "web",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"_cprod": [],
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"_cprodname": [],
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"_cbrand": [],
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"_ccat": ["credit cards"],
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"_ccat2": [],
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"_cquan": [],
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"_cprice": [],
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"_csku": [],
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"_cpdisc": [],
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"site_domain": "</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>tags.tiqcdn.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"page_title": "Tealium Mobile Webview",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"tmsLibVer_pixels": "1.0",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"site_category": "web",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"adobe_analytics_linkname": "content|dropdown|types of coupons",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"link_name": "content|dropdown|types of coupons",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"tealium_lib_name_version": ["utag:4.42:2019-11-21 08:03GMT", "adobeanalytics:1.13.1", "core:1.5", "pixels:1.0"],
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"tealium_env_values": "utag:4.42:2019-11-21 08:03GMT|adobeanalytics:1.13.1|core:1.5|pixels:1.0",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"tmsLibVer_adobeanalytics": "1.13.1",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"vendor_adobe_analytics_fire": "1",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">		"raw_datalayer": "page_url=/coupon/merchants|page_name=mobile-:coupon:merchants|event_category=content|event_action=dropdown|event_content=types of coupons|page_type=others|site_section=mobile|page_language=zh_CHS"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">	}</t>
     </r>
   </si>
   <si>
@@ -12730,9 +13878,6 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -12743,6 +13888,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -13887,7 +15035,7 @@
       </c>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" ht="1147.95" customHeight="1">
+    <row r="4" ht="1603.95" customHeight="1">
       <c r="A4" t="b" s="10">
         <v>0</v>
       </c>
@@ -13897,296 +15045,298 @@
       <c r="C4" t="s" s="11">
         <v>7</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13"/>
+      <c r="D4" t="s" s="11">
+        <v>8</v>
+      </c>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" ht="1687.95" customHeight="1">
-      <c r="A5" t="b" s="14">
+      <c r="A5" t="b" s="13">
         <v>0</v>
       </c>
-      <c r="B5" t="s" s="15">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s" s="15">
+      <c r="B5" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="D5" t="s" s="15">
+      <c r="C5" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="E5" s="16"/>
+      <c r="D5" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="E5" s="15"/>
     </row>
     <row r="6" ht="1507.95" customHeight="1">
       <c r="A6" t="b" s="10">
         <v>0</v>
       </c>
       <c r="B6" t="s" s="11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s" s="11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s" s="11">
-        <v>13</v>
+        <v>14</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" ht="1495.95" customHeight="1">
-      <c r="A7" t="b" s="14">
+      <c r="A7" t="b" s="13">
         <v>0</v>
       </c>
-      <c r="B7" t="s" s="15">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s" s="15">
+      <c r="B7" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="D7" t="s" s="15">
+      <c r="C7" t="s" s="14">
         <v>16</v>
       </c>
-      <c r="E7" s="16"/>
+      <c r="D7" t="s" s="14">
+        <v>17</v>
+      </c>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" ht="1519.95" customHeight="1">
       <c r="A8" t="b" s="10">
         <v>0</v>
       </c>
       <c r="B8" t="s" s="11">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s" s="11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
-      <c r="E8" s="13"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" ht="1531.95" customHeight="1">
-      <c r="A9" t="b" s="14">
+      <c r="A9" t="b" s="13">
         <v>0</v>
       </c>
-      <c r="B9" t="s" s="15">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s" s="15">
+      <c r="B9" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="D9" t="s" s="15">
+      <c r="C9" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="E9" s="16"/>
+      <c r="D9" t="s" s="14">
+        <v>23</v>
+      </c>
+      <c r="E9" s="15"/>
     </row>
     <row r="10" ht="1495.95" customHeight="1">
       <c r="A10" t="b" s="10">
         <v>0</v>
       </c>
       <c r="B10" t="s" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s" s="11">
-        <v>25</v>
+        <v>26</v>
       </c>
-      <c r="E10" s="13"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" ht="1495.95" customHeight="1">
-      <c r="A11" t="b" s="14">
+      <c r="A11" t="b" s="13">
         <v>0</v>
       </c>
-      <c r="B11" t="s" s="15">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s" s="15">
+      <c r="B11" t="s" s="14">
         <v>27</v>
       </c>
-      <c r="D11" t="s" s="15">
+      <c r="C11" t="s" s="14">
         <v>28</v>
       </c>
-      <c r="E11" s="16"/>
+      <c r="D11" t="s" s="14">
+        <v>29</v>
+      </c>
+      <c r="E11" s="15"/>
     </row>
     <row r="12" ht="1495.95" customHeight="1">
       <c r="A12" t="b" s="10">
         <v>0</v>
       </c>
       <c r="B12" t="s" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
-      <c r="E12" s="13"/>
+      <c r="E12" s="12"/>
     </row>
     <row r="13" ht="1507.95" customHeight="1">
-      <c r="A13" t="b" s="14">
+      <c r="A13" t="b" s="13">
         <v>0</v>
       </c>
-      <c r="B13" t="s" s="15">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s" s="15">
+      <c r="B13" t="s" s="14">
         <v>33</v>
       </c>
-      <c r="D13" t="s" s="15">
+      <c r="C13" t="s" s="14">
         <v>34</v>
       </c>
-      <c r="E13" s="16"/>
+      <c r="D13" t="s" s="14">
+        <v>35</v>
+      </c>
+      <c r="E13" s="15"/>
     </row>
     <row r="14" ht="19.95" customHeight="1">
       <c r="A14" t="b" s="10">
         <v>0</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" ht="19.95" customHeight="1">
-      <c r="A15" t="b" s="14">
+      <c r="A15" t="b" s="13">
         <v>0</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
-      <c r="E15" s="16"/>
+      <c r="E15" s="15"/>
     </row>
     <row r="16" ht="19.95" customHeight="1">
       <c r="A16" t="b" s="10">
         <v>0</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="13"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="12"/>
     </row>
     <row r="17" ht="19.95" customHeight="1">
-      <c r="A17" t="b" s="14">
+      <c r="A17" t="b" s="13">
         <v>0</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
-      <c r="E17" s="16"/>
+      <c r="E17" s="15"/>
     </row>
     <row r="18" ht="19.95" customHeight="1">
       <c r="A18" t="b" s="10">
         <v>0</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="12"/>
     </row>
     <row r="19" ht="19.95" customHeight="1">
-      <c r="A19" t="b" s="14">
+      <c r="A19" t="b" s="13">
         <v>0</v>
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
-      <c r="E19" s="16"/>
+      <c r="E19" s="15"/>
     </row>
     <row r="20" ht="19.95" customHeight="1">
       <c r="A20" t="b" s="10">
         <v>0</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="13"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="12"/>
     </row>
     <row r="21" ht="19.95" customHeight="1">
-      <c r="A21" t="b" s="14">
+      <c r="A21" t="b" s="13">
         <v>0</v>
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="16"/>
+      <c r="E21" s="15"/>
     </row>
     <row r="22" ht="19.95" customHeight="1">
       <c r="A22" t="b" s="10">
         <v>0</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="13"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="12"/>
     </row>
     <row r="23" ht="19.95" customHeight="1">
-      <c r="A23" t="b" s="14">
+      <c r="A23" t="b" s="13">
         <v>0</v>
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
-      <c r="E23" s="16"/>
+      <c r="E23" s="15"/>
     </row>
     <row r="24" ht="19.95" customHeight="1">
       <c r="A24" t="b" s="10">
         <v>0</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="13"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="12"/>
     </row>
     <row r="25" ht="19.95" customHeight="1">
-      <c r="A25" t="b" s="14">
+      <c r="A25" t="b" s="13">
         <v>0</v>
       </c>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
-      <c r="E25" s="16"/>
+      <c r="E25" s="15"/>
     </row>
     <row r="26" ht="19.95" customHeight="1">
       <c r="A26" t="b" s="10">
         <v>0</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="13"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" ht="19.95" customHeight="1">
-      <c r="A27" t="b" s="14">
+      <c r="A27" t="b" s="13">
         <v>0</v>
       </c>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
-      <c r="E27" s="16"/>
+      <c r="E27" s="15"/>
     </row>
     <row r="28" ht="19.95" customHeight="1">
       <c r="A28" t="b" s="10">
         <v>0</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="13"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="12"/>
     </row>
     <row r="29" ht="19.95" customHeight="1">
-      <c r="A29" t="b" s="14">
+      <c r="A29" t="b" s="13">
         <v>0</v>
       </c>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
-      <c r="E29" s="16"/>
+      <c r="E29" s="15"/>
     </row>
     <row r="30" ht="19.95" customHeight="1">
       <c r="A30" t="b" s="10">
         <v>0</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="13"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="12"/>
     </row>
     <row r="31" ht="20.2" customHeight="1">
       <c r="A31" t="b" s="18">
@@ -14205,24 +15355,25 @@
     <hyperlink ref="C3" r:id="rId1" location="" tooltip="" display="tiqcdn.com"/>
     <hyperlink ref="D3" r:id="rId2" location="" tooltip="" display="tiqcdn.com"/>
     <hyperlink ref="C4" r:id="rId3" location="" tooltip="" display="tiqcdn.com"/>
-    <hyperlink ref="C5" r:id="rId4" location="" tooltip="" display="tiqcdn.com"/>
-    <hyperlink ref="D5" r:id="rId5" location="" tooltip="" display="tiqcdn.com"/>
-    <hyperlink ref="C6" r:id="rId6" location="" tooltip="" display="tiqcdn.com"/>
-    <hyperlink ref="D6" r:id="rId7" location="" tooltip="" display="tiqcdn.com"/>
-    <hyperlink ref="C7" r:id="rId8" location="" tooltip="" display="tiqcdn.com"/>
-    <hyperlink ref="D7" r:id="rId9" location="" tooltip="" display="tiqcdn.com"/>
-    <hyperlink ref="C8" r:id="rId10" location="" tooltip="" display="tiqcdn.com"/>
-    <hyperlink ref="D8" r:id="rId11" location="" tooltip="" display="tiqcdn.com"/>
-    <hyperlink ref="C9" r:id="rId12" location="" tooltip="" display="tiqcdn.com"/>
-    <hyperlink ref="D9" r:id="rId13" location="" tooltip="" display="tiqcdn.com"/>
-    <hyperlink ref="C10" r:id="rId14" location="" tooltip="" display="tiqcdn.com"/>
-    <hyperlink ref="D10" r:id="rId15" location="" tooltip="" display="tiqcdn.com"/>
-    <hyperlink ref="C11" r:id="rId16" location="" tooltip="" display="tiqcdn.com"/>
-    <hyperlink ref="D11" r:id="rId17" location="" tooltip="" display="tiqcdn.com"/>
-    <hyperlink ref="C12" r:id="rId18" location="" tooltip="" display="tiqcdn.com"/>
-    <hyperlink ref="D12" r:id="rId19" location="" tooltip="" display="tiqcdn.com"/>
-    <hyperlink ref="C13" r:id="rId20" location="" tooltip="" display="tiqcdn.com"/>
-    <hyperlink ref="D13" r:id="rId21" location="" tooltip="" display="tiqcdn.com"/>
+    <hyperlink ref="D4" r:id="rId4" location="" tooltip="" display="tiqcdn.com"/>
+    <hyperlink ref="C5" r:id="rId5" location="" tooltip="" display="tiqcdn.com"/>
+    <hyperlink ref="D5" r:id="rId6" location="" tooltip="" display="tiqcdn.com"/>
+    <hyperlink ref="C6" r:id="rId7" location="" tooltip="" display="tiqcdn.com"/>
+    <hyperlink ref="D6" r:id="rId8" location="" tooltip="" display="tiqcdn.com"/>
+    <hyperlink ref="C7" r:id="rId9" location="" tooltip="" display="tiqcdn.com"/>
+    <hyperlink ref="D7" r:id="rId10" location="" tooltip="" display="tiqcdn.com"/>
+    <hyperlink ref="C8" r:id="rId11" location="" tooltip="" display="tiqcdn.com"/>
+    <hyperlink ref="D8" r:id="rId12" location="" tooltip="" display="tiqcdn.com"/>
+    <hyperlink ref="C9" r:id="rId13" location="" tooltip="" display="tiqcdn.com"/>
+    <hyperlink ref="D9" r:id="rId14" location="" tooltip="" display="tiqcdn.com"/>
+    <hyperlink ref="C10" r:id="rId15" location="" tooltip="" display="tiqcdn.com"/>
+    <hyperlink ref="D10" r:id="rId16" location="" tooltip="" display="tiqcdn.com"/>
+    <hyperlink ref="C11" r:id="rId17" location="" tooltip="" display="tiqcdn.com"/>
+    <hyperlink ref="D11" r:id="rId18" location="" tooltip="" display="tiqcdn.com"/>
+    <hyperlink ref="C12" r:id="rId19" location="" tooltip="" display="tiqcdn.com"/>
+    <hyperlink ref="D12" r:id="rId20" location="" tooltip="" display="tiqcdn.com"/>
+    <hyperlink ref="C13" r:id="rId21" location="" tooltip="" display="tiqcdn.com"/>
+    <hyperlink ref="D13" r:id="rId22" location="" tooltip="" display="tiqcdn.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
